--- a/EvRefApp6/EV/Results/P2/ConsumptionValuesRegen.xlsx
+++ b/EvRefApp6/EV/Results/P2/ConsumptionValuesRegen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>HWFET</t>
   </si>
@@ -38,14 +38,17 @@
     <t>Regen Enabled Energy Consumption (Wh/mi)</t>
   </si>
   <si>
-    <t>Regen Enabled Energy Recovered (Wh/mi)</t>
+    <t>Regen Enabled Energy Recovered (Wh)</t>
+  </si>
+  <si>
+    <t>Total Braking Energy (Wh)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,16 +56,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -70,12 +93,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF5B9BD5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF5B9BD5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF9CC2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF9CC2E5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF9CC2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,59 +450,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>122.0932</v>
+        <v>204.89269999999999</v>
       </c>
       <c r="C2">
-        <v>162.22900000000001</v>
+        <v>220.7936</v>
       </c>
       <c r="D2">
-        <v>131.23259999999999</v>
+        <v>162.67509999999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>228.36160000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>105.28749999999999</v>
+        <v>178.10659999999999</v>
       </c>
       <c r="C3">
-        <v>401.01499999999999</v>
+        <v>232.048</v>
       </c>
       <c r="D3">
-        <v>137.15629999999999</v>
+        <v>402.69880000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>917.01089999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>